--- a/Követelmények.xlsx
+++ b/Követelmények.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web-design-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD2B05-B684-4901-B1A9-0357A264C3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14925" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,289 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+  <si>
+    <t>Formai követelmények</t>
+  </si>
+  <si>
+    <t>Szerezhető pontszám</t>
+  </si>
+  <si>
+    <t>Feladat</t>
+  </si>
+  <si>
+    <t>Menü</t>
+  </si>
+  <si>
+    <t>Az éppen megnyitott menü pont ki van emelve</t>
+  </si>
+  <si>
+    <t>Hiba nélkül működő navigáció</t>
+  </si>
+  <si>
+    <t>Felhasználókezelés</t>
+  </si>
+  <si>
+    <t>Menetkövetés</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Hibás adatok esetén hibaüzenet</t>
+  </si>
+  <si>
+    <t>4.2.2</t>
+  </si>
+  <si>
+    <t>Helyes adatok esetén működő bejelentkezés</t>
+  </si>
+  <si>
+    <t>Bejelentkezés</t>
+  </si>
+  <si>
+    <t>Kijelentkezés</t>
+  </si>
+  <si>
+    <t>Regisztráció</t>
+  </si>
+  <si>
+    <t>Működő regisztráció</t>
+  </si>
+  <si>
+    <t>Űrlap ellenőrzés PHP oldalon</t>
+  </si>
+  <si>
+    <t>5.2.1</t>
+  </si>
+  <si>
+    <t>Nem kitöltött űrlap ellenőrzés</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>5.2.3</t>
+  </si>
+  <si>
+    <t>Foglalt-e a felhasználónév</t>
+  </si>
+  <si>
+    <t>Jelszó ismétlő mező ellenőrzés</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>6.1.2</t>
+  </si>
+  <si>
+    <t>6.1.3</t>
+  </si>
+  <si>
+    <t>6.1.4</t>
+  </si>
+  <si>
+    <t>6.1.5</t>
+  </si>
+  <si>
+    <t>6.1.6</t>
+  </si>
+  <si>
+    <t>6.1.7</t>
+  </si>
+  <si>
+    <t>6.1.8</t>
+  </si>
+  <si>
+    <t>6.1.9</t>
+  </si>
+  <si>
+    <t>6.1.10</t>
+  </si>
+  <si>
+    <t>6.1.11</t>
+  </si>
+  <si>
+    <t>6.1.12</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Technikai elemek</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (A szabad témaválasztás miatt a pontozás a
+megvalósítás összetettsége alapján történik.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ciklus használat</t>
+  </si>
+  <si>
+    <t>GET paraméter alapján adat megjelenítés</t>
+  </si>
+  <si>
+    <t>Kép feltöltés</t>
+  </si>
+  <si>
+    <t>Űrlapos adatkezelés megvalósítás (max 2x)</t>
+  </si>
+  <si>
+    <t>Összetett adatok tárolása session-ben</t>
+  </si>
+  <si>
+    <t>Dátum kezelés</t>
+  </si>
+  <si>
+    <t>String műveletek</t>
+  </si>
+  <si>
+    <t>Belépéshez kötött funkció</t>
+  </si>
+  <si>
+    <t>Kivételkezelés</t>
+  </si>
+  <si>
+    <t>Menetkövetés letiltott sütikkel is</t>
+  </si>
+  <si>
+    <t>Megvalósítás minősége és átláthatósága</t>
+  </si>
+  <si>
+    <t>OOP használata</t>
+  </si>
+  <si>
+    <t>Függvények használata</t>
+  </si>
+  <si>
+    <t>Kód ismétlések elkerülése</t>
+  </si>
+  <si>
+    <t>Logikusan, fájlokba szervezett kód</t>
+  </si>
+  <si>
+    <t>CSS betöltése külön fájlból</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>Összetett számítás</t>
+  </si>
+  <si>
+    <t>Fájlkezelés</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Szabványosan dinamikus generált HTML </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Hibás oldalanként 1 pont levonás. Minimum 0 pont.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beléptetett felhasználó ellenőrzése </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Amennyiben egy nem belépett felhasználó olyan oldalt
+nyit meg, amit csak belépett felhasználó tud elérni,
+irányítson át a bejelentkezéshez.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Kész?</t>
+  </si>
+  <si>
+    <t>IGEN (B)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +314,96 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -45,15 +411,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1005,517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>6</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="37"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="37"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="37"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="37"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="37"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="37"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="37"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="38"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="39"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="40"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="40"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Követelmények.xlsx
+++ b/Követelmények.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web-design-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD2B05-B684-4901-B1A9-0357A264C3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B946E4FF-5B25-43C2-BBB7-75D3A23569F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14925" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
   <si>
     <t>Formai követelmények</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>IGEN (B)</t>
+  </si>
+  <si>
+    <t>Megjegyzés</t>
+  </si>
+  <si>
+    <t>Még több kell.</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -673,11 +679,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -726,6 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1006,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1038,7 @@
     <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>2</v>
@@ -1031,8 +1049,11 @@
       <c r="D1" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>61</v>
       </c>
@@ -1044,7 +1065,7 @@
       </c>
       <c r="D2" s="31"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1056,7 +1077,7 @@
       </c>
       <c r="D3" s="32"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1068,7 +1089,7 @@
       </c>
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3.1</v>
       </c>
@@ -1082,7 +1103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3.2</v>
       </c>
@@ -1094,7 +1115,7 @@
       </c>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1104,7 +1125,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4.0999999999999996</v>
       </c>
@@ -1116,7 +1137,7 @@
       </c>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>4.2</v>
       </c>
@@ -1128,7 +1149,7 @@
       </c>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1161,7 @@
       </c>
       <c r="D10" s="34"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1173,7 @@
       </c>
       <c r="D11" s="34"/>
     </row>
-    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>4.3</v>
       </c>
@@ -1164,7 +1185,7 @@
       </c>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>4.4000000000000004</v>
       </c>
@@ -1176,7 +1197,7 @@
       </c>
       <c r="D13" s="33"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>5</v>
       </c>
@@ -1188,7 +1209,7 @@
       </c>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>5.0999999999999996</v>
       </c>
@@ -1198,9 +1219,11 @@
       <c r="C15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>5.2</v>
       </c>
@@ -1214,7 +1237,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
@@ -1228,7 +1251,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
@@ -1242,7 +1265,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>20</v>
       </c>
@@ -1256,7 +1279,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>6</v>
       </c>
@@ -1268,7 +1291,7 @@
       </c>
       <c r="D20" s="36"/>
     </row>
-    <row r="21" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>6.1</v>
       </c>
@@ -1280,7 +1303,7 @@
       </c>
       <c r="D21" s="37"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>24</v>
       </c>
@@ -1290,9 +1313,14 @@
       <c r="C22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="37"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>25</v>
       </c>
@@ -1304,7 +1332,7 @@
       </c>
       <c r="D23" s="37"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>26</v>
       </c>
@@ -1316,7 +1344,7 @@
       </c>
       <c r="D24" s="37"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>27</v>
       </c>
@@ -1328,7 +1356,7 @@
       </c>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>28</v>
       </c>
@@ -1340,7 +1368,7 @@
       </c>
       <c r="D26" s="37"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>29</v>
       </c>
@@ -1352,7 +1380,7 @@
       </c>
       <c r="D27" s="37"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1394,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>32</v>
       </c>
@@ -1394,7 +1422,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>33</v>
       </c>
@@ -1406,7 +1434,7 @@
       </c>
       <c r="D31" s="37"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>34</v>
       </c>
@@ -1428,7 +1456,9 @@
       <c r="C33" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="38"/>
+      <c r="D33" s="38" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">

--- a/Követelmények.xlsx
+++ b/Követelmények.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web-design-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B946E4FF-5B25-43C2-BBB7-75D3A23569F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B009E04-272D-46BB-95F0-5C3CA88D6688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>Formai követelmények</t>
   </si>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,9 @@
       <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1113,7 +1115,9 @@
       <c r="C6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="33" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11">

--- a/Követelmények.xlsx
+++ b/Követelmények.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web-design-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B009E04-272D-46BB-95F0-5C3CA88D6688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E916B72C-A4EF-4EFB-9DCC-33348B754AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>Formai követelmények</t>
   </si>
@@ -303,9 +303,6 @@
   </si>
   <si>
     <t>Megjegyzés</t>
-  </si>
-  <si>
-    <t>Még több kell.</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1124,9 @@
         <v>6</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="32"/>
+      <c r="D7" s="32" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -1139,7 +1138,9 @@
       <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="33" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -1151,7 +1152,9 @@
       <c r="C9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="33" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -1163,7 +1166,9 @@
       <c r="C10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="34" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -1175,7 +1180,9 @@
       <c r="C11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="34" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -1187,7 +1194,9 @@
       <c r="C12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="33" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1199,7 +1208,9 @@
       <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="33" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -1211,7 +1222,9 @@
       <c r="C14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="32" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
@@ -1241,7 +1254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
@@ -1269,7 +1282,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>20</v>
       </c>
@@ -1283,7 +1296,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>6</v>
       </c>
@@ -1295,7 +1308,7 @@
       </c>
       <c r="D20" s="36"/>
     </row>
-    <row r="21" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>6.1</v>
       </c>
@@ -1307,7 +1320,7 @@
       </c>
       <c r="D21" s="37"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>24</v>
       </c>
@@ -1320,11 +1333,8 @@
       <c r="D22" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>25</v>
       </c>
@@ -1336,7 +1346,7 @@
       </c>
       <c r="D23" s="37"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>26</v>
       </c>
@@ -1346,9 +1356,11 @@
       <c r="C24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="37"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>27</v>
       </c>
@@ -1360,7 +1372,7 @@
       </c>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>28</v>
       </c>
@@ -1372,7 +1384,7 @@
       </c>
       <c r="D26" s="37"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>29</v>
       </c>
@@ -1382,9 +1394,11 @@
       <c r="C27" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="37"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>30</v>
       </c>
@@ -1398,7 +1412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>31</v>
       </c>
@@ -1412,7 +1426,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1440,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>33</v>
       </c>
@@ -1436,9 +1450,11 @@
       <c r="C31" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>34</v>
       </c>
@@ -1474,7 +1490,9 @@
       <c r="C34" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="39" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
@@ -1500,7 +1518,9 @@
       <c r="C36" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="40"/>
+      <c r="D36" s="40" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
@@ -1512,7 +1532,9 @@
       <c r="C37" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="40"/>
+      <c r="D37" s="40" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">

--- a/Követelmények.xlsx
+++ b/Követelmények.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web-design-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E916B72C-A4EF-4EFB-9DCC-33348B754AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDC2FD2-71DC-4EDD-9A8B-BFE495CE8D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>Formai követelmények</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>Megjegyzés</t>
+  </si>
+  <si>
+    <t>IGEN(B)</t>
+  </si>
+  <si>
+    <t>IGEN(B) (almost)</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,7 +1350,9 @@
       <c r="C23" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="37" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
@@ -1382,7 +1390,9 @@
       <c r="C26" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="37" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
@@ -1464,7 +1474,9 @@
       <c r="C32" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="37"/>
+      <c r="D32" s="37" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
